--- a/digital-public-goods-list.xlsx
+++ b/digital-public-goods-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Dropbox (個人)\docs\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F16830E-914A-4DC4-9357-F4E732AEFD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB970D-8F41-4EB7-819F-BB294A7A41D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D6F620F0-858E-4880-BFD4-95202F4057DF}"/>
   </bookViews>
@@ -1574,10 +1574,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CC-BY, Created by mkyutani@gmail.com; originated by DPG Registry, https://www.digitalpublicgoods.net/registry (refered at Feb. 3, 2025)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -1598,6 +1594,10 @@
   </si>
   <si>
     <t>Open Supply Hub is a non-profit powering the transition to safe and sustainable production with the world's most complete, open and accessible global supply chain map.</t>
+  </si>
+  <si>
+    <t>CC-BY, Created by mkyutani@gmail.com; referring to the DPG Registry,  https://www.digitalpublicgoods.net/registry as of February 3, 2025</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2055,7 +2055,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -2071,7 +2071,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2214,26 +2214,26 @@
         <v>409</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -2241,7 +2241,7 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W4" s="10"/>
     </row>
@@ -2275,7 +2275,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -2306,7 +2306,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -2345,14 +2345,14 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -2378,7 +2378,7 @@
         <v>379</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F8" s="8">
         <v>4</v>
@@ -2387,7 +2387,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -2423,10 +2423,10 @@
         <v>411</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -2438,12 +2438,12 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
@@ -2468,18 +2468,18 @@
         <v>412</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -2487,14 +2487,14 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
@@ -2519,18 +2519,18 @@
         <v>413</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -2538,18 +2538,18 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="24" x14ac:dyDescent="0.4">
@@ -2587,7 +2587,7 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W12" s="10"/>
     </row>
@@ -2626,7 +2626,7 @@
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W13" s="10"/>
     </row>
@@ -2652,7 +2652,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -2683,13 +2683,13 @@
         <v>378</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>414</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -2706,10 +2706,10 @@
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="24" x14ac:dyDescent="0.4">
@@ -2734,14 +2734,14 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
@@ -2777,7 +2777,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2786,7 +2786,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -2817,16 +2817,16 @@
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -2863,7 +2863,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -2879,7 +2879,7 @@
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
       <c r="W19" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="24" x14ac:dyDescent="0.4">
@@ -2902,7 +2902,7 @@
         <v>419</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -2915,14 +2915,14 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -2947,7 +2947,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -2986,10 +2986,10 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -2997,7 +2997,7 @@
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -3029,7 +3029,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -3045,7 +3045,7 @@
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
       <c r="W23" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -3071,7 +3071,7 @@
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -3148,7 +3148,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -3157,7 +3157,7 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
@@ -3193,17 +3193,17 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R27" s="10"/>
       <c r="S27" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
@@ -3230,38 +3230,38 @@
         <v>422</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R28" s="10"/>
       <c r="S28" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W28" s="10"/>
     </row>
@@ -3288,19 +3288,19 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O29" s="10"/>
       <c r="P29" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
@@ -3333,7 +3333,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
@@ -3348,7 +3348,7 @@
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="48" x14ac:dyDescent="0.4">
@@ -3371,16 +3371,16 @@
         <v>425</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -3388,10 +3388,10 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
@@ -3422,11 +3422,11 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -3440,7 +3440,7 @@
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -3465,7 +3465,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -3517,7 +3517,7 @@
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W34" s="10"/>
     </row>
@@ -3542,17 +3542,17 @@
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -3587,7 +3587,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -3626,17 +3626,17 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
@@ -3644,10 +3644,10 @@
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -3677,13 +3677,13 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
@@ -3692,7 +3692,7 @@
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -3717,7 +3717,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
@@ -3726,7 +3726,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -3758,21 +3758,21 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K40" s="10"/>
       <c r="L40" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M40" s="10"/>
       <c r="N40" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
@@ -3811,11 +3811,11 @@
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P41" s="10"/>
       <c r="Q41" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
@@ -3846,7 +3846,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -3892,7 +3892,7 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
@@ -3901,7 +3901,7 @@
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
       <c r="W43" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.4">
@@ -3933,7 +3933,7 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -3972,7 +3972,7 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
@@ -4004,10 +4004,10 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
@@ -4018,13 +4018,13 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
       <c r="W46" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="48" x14ac:dyDescent="0.4">
@@ -4059,7 +4059,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
@@ -4094,11 +4094,11 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
@@ -4106,7 +4106,7 @@
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
       <c r="W48" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -4137,10 +4137,10 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -4149,7 +4149,7 @@
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
       <c r="W49" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -4180,7 +4180,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
@@ -4189,7 +4189,7 @@
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W50" s="10"/>
     </row>
@@ -4228,10 +4228,10 @@
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -4261,11 +4261,11 @@
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O52" s="10"/>
       <c r="P52" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -4274,7 +4274,7 @@
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
       <c r="W52" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="24" x14ac:dyDescent="0.4">
@@ -4298,19 +4298,19 @@
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
@@ -4356,7 +4356,7 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
@@ -4381,7 +4381,7 @@
         <v>440</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -4390,17 +4390,17 @@
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O55" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P55" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q55" s="10"/>
       <c r="R55" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
@@ -4434,7 +4434,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -4469,10 +4469,10 @@
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
@@ -4487,7 +4487,7 @@
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
       <c r="W57" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="48" x14ac:dyDescent="0.4">
@@ -4512,7 +4512,7 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -4549,10 +4549,10 @@
         <v>442</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -4565,7 +4565,7 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
@@ -4592,20 +4592,20 @@
         <v>443</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
@@ -4614,7 +4614,7 @@
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
       <c r="W60" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -4641,7 +4641,7 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
@@ -4650,14 +4650,14 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S61" s="10"/>
       <c r="T61" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="U61" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V61" s="10"/>
       <c r="W61" s="10"/>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
@@ -4695,10 +4695,10 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S62" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
@@ -4732,7 +4732,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
@@ -4779,10 +4779,10 @@
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
       <c r="V64" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W64" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="48" x14ac:dyDescent="0.4">
@@ -4805,7 +4805,7 @@
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
@@ -4821,7 +4821,7 @@
       <c r="U65" s="10"/>
       <c r="V65" s="10"/>
       <c r="W65" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="24" x14ac:dyDescent="0.4">
@@ -4859,7 +4859,7 @@
       <c r="T66" s="10"/>
       <c r="U66" s="10"/>
       <c r="V66" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W66" s="10"/>
     </row>
@@ -4886,14 +4886,14 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
@@ -4926,7 +4926,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
@@ -4938,12 +4938,12 @@
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
       <c r="S68" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T68" s="10"/>
       <c r="U68" s="10"/>
       <c r="V68" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W68" s="10"/>
     </row>
@@ -4969,10 +4969,10 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -4981,7 +4981,7 @@
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
       <c r="Q69" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
@@ -4989,7 +4989,7 @@
       <c r="U69" s="10"/>
       <c r="V69" s="10"/>
       <c r="W69" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="24" x14ac:dyDescent="0.4">
@@ -5014,7 +5014,7 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
@@ -5051,16 +5051,16 @@
         <v>449</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
@@ -5069,13 +5069,13 @@
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
       <c r="Q71" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
       <c r="T71" s="10"/>
       <c r="U71" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V71" s="10"/>
       <c r="W71" s="10"/>
@@ -5102,7 +5102,7 @@
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -5148,7 +5148,7 @@
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
@@ -5180,7 +5180,7 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
@@ -5190,7 +5190,7 @@
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
       <c r="Q74" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
@@ -5221,21 +5221,21 @@
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
       <c r="L75" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M75" s="10"/>
       <c r="N75" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R75" s="10"/>
       <c r="S75" s="10"/>
@@ -5277,7 +5277,7 @@
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
       <c r="V76" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W76" s="10"/>
     </row>
@@ -5295,7 +5295,7 @@
         <v>393</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>452</v>
@@ -5305,14 +5305,14 @@
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q77" s="10"/>
       <c r="R77" s="10"/>
@@ -5320,7 +5320,7 @@
       <c r="T77" s="10"/>
       <c r="U77" s="10"/>
       <c r="V77" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W77" s="10"/>
     </row>
@@ -5344,21 +5344,21 @@
         <v>453</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
       <c r="O78" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
@@ -5368,7 +5368,7 @@
       <c r="U78" s="10"/>
       <c r="V78" s="10"/>
       <c r="W78" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="48" x14ac:dyDescent="0.4">
@@ -5391,22 +5391,22 @@
         <v>454</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H79" s="10"/>
       <c r="I79" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J79" s="10"/>
       <c r="K79" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M79" s="10"/>
       <c r="N79" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
@@ -5417,7 +5417,7 @@
       <c r="U79" s="10"/>
       <c r="V79" s="10"/>
       <c r="W79" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="48" x14ac:dyDescent="0.4">
@@ -5442,7 +5442,7 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
@@ -5481,7 +5481,7 @@
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
@@ -5519,13 +5519,13 @@
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
@@ -5563,7 +5563,7 @@
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
@@ -5602,7 +5602,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
@@ -5641,7 +5641,7 @@
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
@@ -5681,7 +5681,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
       <c r="J86" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
@@ -5725,23 +5725,23 @@
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
       <c r="O87" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P87" s="10"/>
       <c r="Q87" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S87" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T87" s="10"/>
       <c r="U87" s="10"/>
       <c r="V87" s="10"/>
       <c r="W87" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -5779,7 +5779,7 @@
       <c r="T88" s="10"/>
       <c r="U88" s="10"/>
       <c r="V88" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W88" s="10"/>
     </row>
@@ -5816,7 +5816,7 @@
       <c r="T89" s="10"/>
       <c r="U89" s="10"/>
       <c r="V89" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W89" s="10"/>
     </row>
@@ -5843,14 +5843,14 @@
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
@@ -5860,7 +5860,7 @@
       <c r="U90" s="10"/>
       <c r="V90" s="10"/>
       <c r="W90" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="24" x14ac:dyDescent="0.4">
@@ -5891,7 +5891,7 @@
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P91" s="10"/>
       <c r="Q91" s="10"/>
@@ -5925,7 +5925,7 @@
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
       <c r="J92" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
@@ -5963,10 +5963,10 @@
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
@@ -5980,7 +5980,7 @@
       <c r="T93" s="10"/>
       <c r="U93" s="10"/>
       <c r="V93" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W93" s="10"/>
     </row>
@@ -6006,27 +6006,27 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q94" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R94" s="10"/>
       <c r="S94" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T94" s="10"/>
       <c r="U94" s="10"/>
@@ -6056,7 +6056,7 @@
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
       <c r="J95" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
@@ -6107,7 +6107,7 @@
       <c r="T96" s="10"/>
       <c r="U96" s="10"/>
       <c r="V96" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W96" s="10"/>
     </row>
@@ -6134,7 +6134,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
       <c r="J97" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
@@ -6142,7 +6142,7 @@
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q97" s="10"/>
       <c r="R97" s="10"/>
@@ -6174,7 +6174,7 @@
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -6219,7 +6219,7 @@
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
       <c r="O99" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
@@ -6229,7 +6229,7 @@
       <c r="U99" s="10"/>
       <c r="V99" s="10"/>
       <c r="W99" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="24" x14ac:dyDescent="0.4">
@@ -6259,11 +6259,11 @@
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O100" s="10"/>
       <c r="P100" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q100" s="10"/>
       <c r="R100" s="10"/>
@@ -6301,7 +6301,7 @@
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
       <c r="O101" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
@@ -6334,7 +6334,7 @@
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
@@ -6383,7 +6383,7 @@
       <c r="Q103" s="10"/>
       <c r="R103" s="10"/>
       <c r="S103" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T103" s="10"/>
       <c r="U103" s="10"/>
@@ -6410,7 +6410,7 @@
         <v>463</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
@@ -6419,11 +6419,11 @@
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O104" s="10"/>
       <c r="P104" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q104" s="10"/>
       <c r="R104" s="10"/>
@@ -6431,7 +6431,7 @@
       <c r="T104" s="10"/>
       <c r="U104" s="10"/>
       <c r="V104" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W104" s="10"/>
     </row>
@@ -6455,7 +6455,7 @@
         <v>464</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
@@ -6464,7 +6464,7 @@
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
       <c r="N105" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
@@ -6498,7 +6498,7 @@
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
@@ -6535,30 +6535,30 @@
         <v>465</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
       <c r="N107" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O107" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P107" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q107" s="10"/>
       <c r="R107" s="10"/>
@@ -6566,10 +6566,10 @@
       <c r="T107" s="10"/>
       <c r="U107" s="10"/>
       <c r="V107" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W107" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="24" x14ac:dyDescent="0.4">
@@ -6592,7 +6592,7 @@
         <v>466</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
@@ -6602,10 +6602,10 @@
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
       <c r="O108" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P108" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q108" s="10"/>
       <c r="R108" s="10"/>
@@ -6613,10 +6613,10 @@
       <c r="T108" s="10"/>
       <c r="U108" s="10"/>
       <c r="V108" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W108" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="24" x14ac:dyDescent="0.4">
@@ -6643,14 +6643,14 @@
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q109" s="10"/>
       <c r="R109" s="10"/>
@@ -6659,7 +6659,7 @@
       <c r="U109" s="10"/>
       <c r="V109" s="10"/>
       <c r="W109" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="48" x14ac:dyDescent="0.4">
@@ -6685,13 +6685,13 @@
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
       <c r="J110" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
       <c r="N110" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
@@ -6726,20 +6726,20 @@
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K111" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q111" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
@@ -6747,7 +6747,7 @@
       <c r="U111" s="10"/>
       <c r="V111" s="10"/>
       <c r="W111" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -6770,42 +6770,42 @@
         <v>470</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K112" s="10"/>
       <c r="L112" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M112" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N112" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
       <c r="R112" s="10"/>
       <c r="S112" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T112" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="U112" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V112" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W112" s="10"/>
     </row>
@@ -6831,14 +6831,14 @@
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J113" s="10"/>
       <c r="K113" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
@@ -6874,7 +6874,7 @@
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
@@ -6883,7 +6883,7 @@
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q114" s="10"/>
       <c r="R114" s="10"/>
@@ -6892,7 +6892,7 @@
       <c r="U114" s="10"/>
       <c r="V114" s="10"/>
       <c r="W114" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -6924,7 +6924,7 @@
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q115" s="10"/>
       <c r="R115" s="10"/>
@@ -6969,7 +6969,7 @@
       <c r="T116" s="10"/>
       <c r="U116" s="10"/>
       <c r="V116" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W116" s="10"/>
     </row>
@@ -6995,7 +6995,7 @@
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
       <c r="I117" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
@@ -7007,7 +7007,7 @@
       <c r="Q117" s="10"/>
       <c r="R117" s="10"/>
       <c r="S117" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T117" s="10"/>
       <c r="U117" s="10"/>
@@ -7036,7 +7036,7 @@
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
       <c r="I118" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
@@ -7067,7 +7067,7 @@
         <v>378</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F119" s="8">
         <v>8</v>
@@ -7080,7 +7080,7 @@
       <c r="L119" s="10"/>
       <c r="M119" s="10"/>
       <c r="N119" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
@@ -7120,7 +7120,7 @@
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
       <c r="O120" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P120" s="10"/>
       <c r="Q120" s="10"/>
@@ -7129,7 +7129,7 @@
       <c r="T120" s="10"/>
       <c r="U120" s="10"/>
       <c r="V120" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W120" s="10"/>
     </row>
@@ -7155,7 +7155,7 @@
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
       <c r="I121" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
@@ -7207,10 +7207,10 @@
       <c r="T122" s="10"/>
       <c r="U122" s="10"/>
       <c r="V122" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W122" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="48" x14ac:dyDescent="0.4">
@@ -7235,7 +7235,7 @@
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
       <c r="I123" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
@@ -7274,7 +7274,7 @@
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
       <c r="I124" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
@@ -7311,7 +7311,7 @@
         <v>474</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H125" s="10"/>
       <c r="I125" s="10"/>
@@ -7320,28 +7320,28 @@
       <c r="L125" s="10"/>
       <c r="M125" s="10"/>
       <c r="N125" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O125" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P125" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q125" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R125" s="10"/>
       <c r="S125" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T125" s="10"/>
       <c r="U125" s="10"/>
       <c r="V125" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W125" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="48" x14ac:dyDescent="0.4">
@@ -7364,12 +7364,12 @@
         <v>475</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
       <c r="J126" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
@@ -7382,7 +7382,7 @@
       <c r="S126" s="10"/>
       <c r="T126" s="10"/>
       <c r="U126" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V126" s="10"/>
       <c r="W126" s="10"/>
@@ -7407,28 +7407,28 @@
         <v>476</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L127" s="10"/>
       <c r="M127" s="10"/>
       <c r="N127" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O127" s="10"/>
       <c r="P127" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q127" s="10"/>
       <c r="R127" s="10"/>
@@ -7436,10 +7436,10 @@
       <c r="T127" s="10"/>
       <c r="U127" s="10"/>
       <c r="V127" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W127" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.4">
@@ -7464,7 +7464,7 @@
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
       <c r="I128" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J128" s="10"/>
       <c r="K128" s="10"/>
@@ -7501,21 +7501,21 @@
         <v>477</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H129" s="10"/>
       <c r="I129" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J129" s="10"/>
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
       <c r="M129" s="10"/>
       <c r="N129" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O129" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P129" s="10"/>
       <c r="Q129" s="10"/>
@@ -7525,7 +7525,7 @@
       <c r="U129" s="10"/>
       <c r="V129" s="10"/>
       <c r="W129" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="24" x14ac:dyDescent="0.4">
@@ -7551,21 +7551,21 @@
       <c r="H130" s="10"/>
       <c r="I130" s="10"/>
       <c r="J130" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K130" s="10"/>
       <c r="L130" s="10"/>
       <c r="M130" s="10"/>
       <c r="N130" s="10"/>
       <c r="O130" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P130" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q130" s="10"/>
       <c r="R130" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S130" s="10"/>
       <c r="T130" s="10"/>
@@ -7595,7 +7595,7 @@
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
       <c r="I131" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J131" s="10"/>
       <c r="K131" s="10"/>
@@ -7634,7 +7634,7 @@
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
       <c r="I132" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J132" s="10"/>
       <c r="K132" s="10"/>
@@ -7671,7 +7671,7 @@
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
       <c r="I133" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -7708,26 +7708,26 @@
         <v>479</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K134" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L134" s="10"/>
       <c r="M134" s="10"/>
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
       <c r="P134" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q134" s="10"/>
       <c r="R134" s="10"/>
@@ -7736,7 +7736,7 @@
       <c r="U134" s="10"/>
       <c r="V134" s="10"/>
       <c r="W134" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="24" x14ac:dyDescent="0.4">
@@ -7761,7 +7761,7 @@
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
       <c r="I135" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J135" s="10"/>
       <c r="K135" s="10"/>
@@ -7800,31 +7800,31 @@
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
       <c r="I136" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
       <c r="L136" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M136" s="10"/>
       <c r="N136" s="10"/>
       <c r="O136" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P136" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q136" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R136" s="10"/>
       <c r="S136" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T136" s="10"/>
       <c r="U136" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V136" s="10"/>
       <c r="W136" s="10"/>
@@ -7849,7 +7849,7 @@
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
       <c r="I137" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J137" s="10"/>
       <c r="K137" s="10"/>
@@ -7888,7 +7888,7 @@
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
       <c r="I138" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J138" s="10"/>
       <c r="K138" s="10"/>
@@ -7896,7 +7896,7 @@
       <c r="M138" s="10"/>
       <c r="N138" s="10"/>
       <c r="O138" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P138" s="10"/>
       <c r="Q138" s="10"/>
@@ -7927,7 +7927,7 @@
         <v>464</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H139" s="10"/>
       <c r="I139" s="10"/>
@@ -7936,7 +7936,7 @@
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
       <c r="N139" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
@@ -7971,7 +7971,7 @@
       <c r="H140" s="10"/>
       <c r="I140" s="10"/>
       <c r="J140" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K140" s="10"/>
       <c r="L140" s="10"/>
@@ -8009,7 +8009,7 @@
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
       <c r="I141" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J141" s="10"/>
       <c r="K141" s="10"/>
@@ -8050,12 +8050,12 @@
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
       <c r="K142" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
       <c r="N142" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
@@ -8065,7 +8065,7 @@
       <c r="T142" s="10"/>
       <c r="U142" s="10"/>
       <c r="V142" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W142" s="10"/>
     </row>
@@ -8089,7 +8089,7 @@
         <v>483</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H143" s="10"/>
       <c r="I143" s="10"/>
@@ -8101,11 +8101,11 @@
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
       <c r="Q143" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R143" s="10"/>
       <c r="S143" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T143" s="10"/>
       <c r="U143" s="10"/>
@@ -8134,7 +8134,7 @@
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
       <c r="I144" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J144" s="10"/>
       <c r="K144" s="10"/>
@@ -8178,13 +8178,13 @@
       <c r="L145" s="10"/>
       <c r="M145" s="10"/>
       <c r="N145" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
       <c r="Q145" s="10"/>
       <c r="R145" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S145" s="10"/>
       <c r="T145" s="10"/>
@@ -8214,7 +8214,7 @@
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J146" s="10"/>
       <c r="K146" s="10"/>
@@ -8256,27 +8256,27 @@
       <c r="J147" s="10"/>
       <c r="K147" s="10"/>
       <c r="L147" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
       <c r="O147" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P147" s="10"/>
       <c r="Q147" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R147" s="10"/>
       <c r="S147" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T147" s="10"/>
       <c r="U147" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V147" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W147" s="10"/>
     </row>
@@ -8310,15 +8310,15 @@
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
       <c r="Q148" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R148" s="10"/>
       <c r="S148" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T148" s="10"/>
       <c r="U148" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V148" s="10"/>
       <c r="W148" s="10"/>
@@ -8345,7 +8345,7 @@
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
       <c r="I149" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J149" s="10"/>
       <c r="K149" s="10"/>
@@ -8389,21 +8389,21 @@
       <c r="L150" s="10"/>
       <c r="M150" s="10"/>
       <c r="N150" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O150" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P150" s="10"/>
       <c r="Q150" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R150" s="10"/>
       <c r="S150" s="10"/>
       <c r="T150" s="10"/>
       <c r="U150" s="10"/>
       <c r="V150" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W150" s="10"/>
     </row>
@@ -8442,7 +8442,7 @@
       <c r="T151" s="10"/>
       <c r="U151" s="10"/>
       <c r="V151" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W151" s="10"/>
     </row>
@@ -8466,15 +8466,15 @@
         <v>488</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
       <c r="K152" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
@@ -8482,7 +8482,7 @@
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
       <c r="Q152" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R152" s="10"/>
       <c r="S152" s="10"/>
@@ -8513,7 +8513,7 @@
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
       <c r="I153" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
@@ -8522,7 +8522,7 @@
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
       <c r="P153" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q153" s="10"/>
       <c r="R153" s="10"/>
@@ -8530,7 +8530,7 @@
       <c r="T153" s="10"/>
       <c r="U153" s="10"/>
       <c r="V153" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W153" s="10"/>
     </row>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="G154" s="10"/>
       <c r="H154" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
@@ -8567,14 +8567,14 @@
       <c r="P154" s="10"/>
       <c r="Q154" s="10"/>
       <c r="R154" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S154" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T154" s="10"/>
       <c r="U154" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V154" s="10"/>
       <c r="W154" s="10"/>
@@ -8597,28 +8597,28 @@
         <v>491</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J155" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K155" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L155" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M155" s="10"/>
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
       <c r="P155" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q155" s="10"/>
       <c r="R155" s="10"/>
@@ -8626,7 +8626,7 @@
       <c r="T155" s="10"/>
       <c r="U155" s="10"/>
       <c r="V155" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W155" s="10"/>
     </row>
@@ -8658,7 +8658,7 @@
       <c r="M156" s="10"/>
       <c r="N156" s="10"/>
       <c r="O156" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P156" s="10"/>
       <c r="Q156" s="10"/>
@@ -8693,7 +8693,7 @@
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
       <c r="K157" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L157" s="10"/>
       <c r="M157" s="10"/>
@@ -8730,20 +8730,20 @@
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
       <c r="I158" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J158" s="10"/>
       <c r="K158" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L158" s="10"/>
       <c r="M158" s="10"/>
       <c r="N158" s="10"/>
       <c r="O158" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P158" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q158" s="10"/>
       <c r="R158" s="10"/>
@@ -8783,15 +8783,15 @@
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
       <c r="Q159" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R159" s="10"/>
       <c r="S159" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T159" s="10"/>
       <c r="U159" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V159" s="10"/>
       <c r="W159" s="10"/>
@@ -8818,7 +8818,7 @@
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
       <c r="I160" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J160" s="10"/>
       <c r="K160" s="10"/>
@@ -8857,14 +8857,14 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J161" s="10"/>
       <c r="K161" s="10"/>
       <c r="L161" s="10"/>
       <c r="M161" s="10"/>
       <c r="N161" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
@@ -8898,7 +8898,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
       <c r="I162" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J162" s="10"/>
       <c r="K162" s="10"/>
@@ -8907,7 +8907,7 @@
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
       <c r="P162" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q162" s="10"/>
       <c r="R162" s="10"/>
@@ -8916,7 +8916,7 @@
       <c r="U162" s="10"/>
       <c r="V162" s="10"/>
       <c r="W162" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -8942,7 +8942,7 @@
       <c r="H163" s="10"/>
       <c r="I163" s="10"/>
       <c r="J163" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K163" s="10"/>
       <c r="L163" s="10"/>
@@ -8981,13 +8981,13 @@
       <c r="H164" s="10"/>
       <c r="I164" s="10"/>
       <c r="J164" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K164" s="10"/>
       <c r="L164" s="10"/>
       <c r="M164" s="10"/>
       <c r="N164" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
@@ -9013,40 +9013,40 @@
         <v>382</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F165" s="8" t="s">
         <v>493</v>
       </c>
       <c r="G165" s="10"/>
       <c r="H165" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J165" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K165" s="10"/>
       <c r="L165" s="10"/>
       <c r="M165" s="10"/>
       <c r="N165" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O165" s="10"/>
       <c r="P165" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q165" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R165" s="10"/>
       <c r="S165" s="10"/>
       <c r="T165" s="10"/>
       <c r="U165" s="10"/>
       <c r="V165" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W165" s="10"/>
     </row>
@@ -9073,7 +9073,7 @@
       <c r="H166" s="10"/>
       <c r="I166" s="10"/>
       <c r="J166" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K166" s="10"/>
       <c r="L166" s="10"/>
@@ -9112,7 +9112,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
       <c r="J167" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K167" s="10"/>
       <c r="L167" s="10"/>
@@ -9120,7 +9120,7 @@
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
       <c r="P167" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q167" s="10"/>
       <c r="R167" s="10"/>
@@ -9152,7 +9152,7 @@
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
       <c r="I168" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J168" s="10"/>
       <c r="K168" s="10"/>
@@ -9191,7 +9191,7 @@
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
       <c r="I169" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J169" s="10"/>
       <c r="K169" s="10"/>
@@ -9235,7 +9235,7 @@
       <c r="L170" s="10"/>
       <c r="M170" s="10"/>
       <c r="N170" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
@@ -9245,7 +9245,7 @@
       <c r="T170" s="10"/>
       <c r="U170" s="10"/>
       <c r="V170" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W170" s="10"/>
     </row>
@@ -9272,7 +9272,7 @@
       <c r="H171" s="10"/>
       <c r="I171" s="10"/>
       <c r="J171" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K171" s="10"/>
       <c r="L171" s="10"/>
@@ -9312,10 +9312,10 @@
       <c r="I172" s="10"/>
       <c r="J172" s="10"/>
       <c r="K172" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L172" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M172" s="10"/>
       <c r="N172" s="10"/>
@@ -9324,12 +9324,12 @@
       <c r="Q172" s="10"/>
       <c r="R172" s="10"/>
       <c r="S172" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T172" s="10"/>
       <c r="U172" s="10"/>
       <c r="V172" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W172" s="10"/>
     </row>
@@ -9356,7 +9356,7 @@
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
       <c r="J173" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K173" s="10"/>
       <c r="L173" s="10"/>
@@ -9400,7 +9400,7 @@
       <c r="M174" s="10"/>
       <c r="N174" s="10"/>
       <c r="O174" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P174" s="10"/>
       <c r="Q174" s="10"/>
@@ -9409,7 +9409,7 @@
       <c r="T174" s="10"/>
       <c r="U174" s="10"/>
       <c r="V174" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W174" s="10"/>
     </row>
@@ -9436,7 +9436,7 @@
       <c r="H175" s="10"/>
       <c r="I175" s="10"/>
       <c r="J175" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K175" s="10"/>
       <c r="L175" s="10"/>
@@ -9450,7 +9450,7 @@
       <c r="T175" s="10"/>
       <c r="U175" s="10"/>
       <c r="V175" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W175" s="10"/>
     </row>
@@ -9474,7 +9474,7 @@
         <v>497</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
@@ -9492,7 +9492,7 @@
       <c r="U176" s="10"/>
       <c r="V176" s="10"/>
       <c r="W176" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -9522,15 +9522,15 @@
       <c r="L177" s="10"/>
       <c r="M177" s="10"/>
       <c r="N177" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O177" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P177" s="10"/>
       <c r="Q177" s="10"/>
       <c r="R177" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S177" s="10"/>
       <c r="T177" s="10"/>
@@ -9562,7 +9562,7 @@
       <c r="I178" s="10"/>
       <c r="J178" s="10"/>
       <c r="K178" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L178" s="10"/>
       <c r="M178" s="10"/>
@@ -9575,7 +9575,7 @@
       <c r="T178" s="10"/>
       <c r="U178" s="10"/>
       <c r="V178" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W178" s="10"/>
     </row>
@@ -9602,14 +9602,14 @@
       <c r="H179" s="10"/>
       <c r="I179" s="10"/>
       <c r="J179" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K179" s="10"/>
       <c r="L179" s="10"/>
       <c r="M179" s="10"/>
       <c r="N179" s="10"/>
       <c r="O179" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P179" s="10"/>
       <c r="Q179" s="10"/>
@@ -9619,7 +9619,7 @@
       <c r="U179" s="10"/>
       <c r="V179" s="10"/>
       <c r="W179" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -9657,7 +9657,7 @@
       <c r="T180" s="10"/>
       <c r="U180" s="10"/>
       <c r="V180" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W180" s="10"/>
     </row>
@@ -9683,7 +9683,7 @@
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
       <c r="I181" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J181" s="10"/>
       <c r="K181" s="10"/>
@@ -9691,12 +9691,12 @@
       <c r="M181" s="10"/>
       <c r="N181" s="10"/>
       <c r="O181" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P181" s="10"/>
       <c r="Q181" s="10"/>
       <c r="R181" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S181" s="10"/>
       <c r="T181" s="10"/>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="G182" s="10"/>
       <c r="H182" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
@@ -9738,11 +9738,11 @@
       <c r="Q182" s="10"/>
       <c r="R182" s="10"/>
       <c r="S182" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T182" s="10"/>
       <c r="U182" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V182" s="10"/>
       <c r="W182" s="10"/>
@@ -9769,7 +9769,7 @@
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
       <c r="I183" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J183" s="10"/>
       <c r="K183" s="10"/>
@@ -9807,13 +9807,13 @@
       </c>
       <c r="G184" s="10"/>
       <c r="H184" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
       <c r="K184" s="10"/>
       <c r="L184" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M184" s="10"/>
       <c r="N184" s="10"/>
@@ -9821,16 +9821,16 @@
       <c r="P184" s="10"/>
       <c r="Q184" s="10"/>
       <c r="R184" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S184" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T184" s="10"/>
       <c r="U184" s="10"/>
       <c r="V184" s="10"/>
       <c r="W184" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -9861,11 +9861,11 @@
       <c r="M185" s="10"/>
       <c r="N185" s="10"/>
       <c r="O185" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P185" s="10"/>
       <c r="Q185" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R185" s="10"/>
       <c r="S185" s="10"/>
@@ -9897,17 +9897,17 @@
       <c r="H186" s="10"/>
       <c r="I186" s="10"/>
       <c r="J186" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K186" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L186" s="10"/>
       <c r="M186" s="10"/>
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
       <c r="P186" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q186" s="10"/>
       <c r="R186" s="10"/>
@@ -9915,10 +9915,10 @@
       <c r="T186" s="10"/>
       <c r="U186" s="10"/>
       <c r="V186" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W186" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="24" x14ac:dyDescent="0.4">
@@ -9941,36 +9941,36 @@
         <v>504</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H187" s="10"/>
       <c r="I187" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J187" s="10"/>
       <c r="K187" s="10"/>
       <c r="L187" s="10"/>
       <c r="M187" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N187" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O187" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P187" s="10"/>
       <c r="Q187" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R187" s="10"/>
       <c r="S187" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T187" s="10"/>
       <c r="U187" s="10"/>
       <c r="V187" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W187" s="10"/>
     </row>
@@ -9992,24 +9992,24 @@
         <v>505</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
       <c r="K188" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L188" s="10"/>
       <c r="M188" s="10"/>
       <c r="N188" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O188" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P188" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q188" s="10"/>
       <c r="R188" s="10"/>
@@ -10018,7 +10018,7 @@
       <c r="U188" s="10"/>
       <c r="V188" s="10"/>
       <c r="W188" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="36" x14ac:dyDescent="0.4">
@@ -10055,7 +10055,7 @@
       <c r="S189" s="10"/>
       <c r="T189" s="10"/>
       <c r="U189" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V189" s="10"/>
       <c r="W189" s="10"/>
